--- a/6. Schedule/Schedule.xlsx
+++ b/6. Schedule/Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vongu\Desktop\TTTN\6. Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17880" windowHeight="6720" tabRatio="548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" tabRatio="548"/>
   </bookViews>
   <sheets>
     <sheet name="Work Breakdown Structure" sheetId="32" r:id="rId1"/>
@@ -419,9 +419,6 @@
     <t>Thiết kế menu</t>
   </si>
   <si>
-    <t>Doing</t>
-  </si>
-  <si>
     <t>PHP</t>
   </si>
   <si>
@@ -456,6 +453,9 @@
   </si>
   <si>
     <t>Truy vấn dữ liệu</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -2055,17 +2055,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2129,18 +2129,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2159,18 +2147,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2186,18 +2162,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2229,13 +2215,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3292,10 +3292,10 @@
   <dimension ref="A1:EL110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="10" topLeftCell="AD44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="10" topLeftCell="S86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AD29" sqref="AD29:AG59"/>
+      <selection pane="bottomRight" activeCell="R87" sqref="R87:R88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -3423,20 +3423,20 @@
       <c r="K2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="173" t="s">
+      <c r="L2" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="174"/>
-      <c r="N2" s="173" t="s">
+      <c r="M2" s="171"/>
+      <c r="N2" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="174"/>
+      <c r="O2" s="171"/>
       <c r="P2" s="118"/>
-      <c r="Q2" s="170">
+      <c r="Q2" s="180">
         <f ca="1">TODAY()</f>
-        <v>43298</v>
-      </c>
-      <c r="R2" s="171"/>
+        <v>43313</v>
+      </c>
+      <c r="R2" s="181"/>
       <c r="S2" s="35"/>
       <c r="T2" s="69"/>
       <c r="U2" s="30"/>
@@ -3568,7 +3568,7 @@
       <c r="EK2" s="40"/>
       <c r="EL2" s="15" t="str">
         <f ca="1">"Date："&amp;TEXT(TODAY()," yyyy/mm/dd")</f>
-        <v>Date： 2018/07/17</v>
+        <v>Date： 2018/08/01</v>
       </c>
     </row>
     <row r="3" spans="1:142" ht="18.75" customHeight="1">
@@ -3595,19 +3595,19 @@
         <f>COUNTIF(R11:R12,"=◇")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="175">
+      <c r="L3" s="172">
         <f>COUNTIF(R11:R12,"=▲")</f>
         <v>0</v>
       </c>
-      <c r="M3" s="176"/>
-      <c r="N3" s="175">
+      <c r="M3" s="173"/>
+      <c r="N3" s="172">
         <f>COUNTIF(R11:R12,"=★")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="176"/>
+      <c r="O3" s="173"/>
       <c r="P3" s="136"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
       <c r="S3" s="35"/>
       <c r="T3" s="70"/>
       <c r="U3" s="107"/>
@@ -3865,16 +3865,16 @@
       <c r="E7" s="133"/>
       <c r="F7" s="126"/>
       <c r="G7" s="108"/>
-      <c r="H7" s="184" t="s">
+      <c r="H7" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="185"/>
-      <c r="O7" s="186"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="179"/>
       <c r="P7" s="126"/>
       <c r="Q7" s="138"/>
       <c r="R7" s="138"/>
@@ -4262,47 +4262,47 @@
       </c>
     </row>
     <row r="9" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="192" t="s">
+      <c r="D9" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="194" t="s">
+      <c r="E9" s="190" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="198" t="s">
+      <c r="G9" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="189" t="s">
+      <c r="H9" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="190"/>
-      <c r="J9" s="196" t="s">
+      <c r="I9" s="198"/>
+      <c r="J9" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="197"/>
-      <c r="L9" s="177" t="s">
+      <c r="K9" s="193"/>
+      <c r="L9" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="178"/>
-      <c r="N9" s="183" t="s">
+      <c r="M9" s="175"/>
+      <c r="N9" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="178"/>
+      <c r="O9" s="175"/>
       <c r="P9" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="179" t="s">
+      <c r="Q9" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="180"/>
+      <c r="R9" s="184"/>
       <c r="S9" s="29">
         <v>43282</v>
       </c>
@@ -4797,12 +4797,12 @@
       <c r="EL9" s="161"/>
     </row>
     <row r="10" spans="1:142" ht="14.25" customHeight="1">
-      <c r="B10" s="188"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="195"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="191"/>
       <c r="F10" s="148"/>
-      <c r="G10" s="198"/>
+      <c r="G10" s="194"/>
       <c r="H10" s="112" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4828,8 @@
         <v>5</v>
       </c>
       <c r="P10" s="148"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="182"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="186"/>
       <c r="S10" s="22">
         <f>S9</f>
         <v>43282</v>
@@ -5163,13 +5163,13 @@
       <c r="EL10" s="161"/>
     </row>
     <row r="11" spans="1:142" ht="9" customHeight="1">
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C11" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="149"/>
+      <c r="D11" s="151"/>
       <c r="E11" s="153" t="s">
         <v>57</v>
       </c>
@@ -5177,16 +5177,16 @@
         <v>51</v>
       </c>
       <c r="G11" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" s="143"/>
       <c r="I11" s="143"/>
       <c r="J11" s="143"/>
       <c r="K11" s="143"/>
       <c r="L11" s="145"/>
-      <c r="M11" s="151"/>
+      <c r="M11" s="149"/>
       <c r="N11" s="145"/>
-      <c r="O11" s="151"/>
+      <c r="O11" s="149"/>
       <c r="P11" s="141"/>
       <c r="Q11" s="157"/>
       <c r="R11" s="155"/>
@@ -5321,8 +5321,8 @@
     </row>
     <row r="12" spans="1:142" ht="9" customHeight="1">
       <c r="B12" s="200"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="150"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="154"/>
       <c r="F12" s="142"/>
       <c r="G12" s="144"/>
@@ -5331,9 +5331,9 @@
       <c r="J12" s="144"/>
       <c r="K12" s="144"/>
       <c r="L12" s="146"/>
-      <c r="M12" s="152"/>
+      <c r="M12" s="150"/>
       <c r="N12" s="146"/>
-      <c r="O12" s="152"/>
+      <c r="O12" s="150"/>
       <c r="P12" s="142"/>
       <c r="Q12" s="158"/>
       <c r="R12" s="156"/>
@@ -5463,24 +5463,24 @@
       <c r="EL12" s="96"/>
     </row>
     <row r="13" spans="1:142" ht="9" customHeight="1">
-      <c r="B13" s="199"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="149"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="153"/>
       <c r="F13" s="141" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" s="143"/>
       <c r="I13" s="143"/>
       <c r="J13" s="143"/>
       <c r="K13" s="143"/>
       <c r="L13" s="145"/>
-      <c r="M13" s="151"/>
+      <c r="M13" s="149"/>
       <c r="N13" s="145"/>
-      <c r="O13" s="151"/>
+      <c r="O13" s="149"/>
       <c r="P13" s="141"/>
       <c r="Q13" s="157"/>
       <c r="R13" s="155"/>
@@ -5615,8 +5615,8 @@
     </row>
     <row r="14" spans="1:142" ht="9" customHeight="1">
       <c r="B14" s="200"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="150"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="154"/>
       <c r="F14" s="142"/>
       <c r="G14" s="144"/>
@@ -5625,9 +5625,9 @@
       <c r="J14" s="144"/>
       <c r="K14" s="144"/>
       <c r="L14" s="146"/>
-      <c r="M14" s="152"/>
+      <c r="M14" s="150"/>
       <c r="N14" s="146"/>
-      <c r="O14" s="152"/>
+      <c r="O14" s="150"/>
       <c r="P14" s="142"/>
       <c r="Q14" s="158"/>
       <c r="R14" s="156"/>
@@ -5757,24 +5757,24 @@
       <c r="EL14" s="96"/>
     </row>
     <row r="15" spans="1:142" ht="9" customHeight="1">
-      <c r="B15" s="199"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="149"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="153"/>
       <c r="F15" s="141" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="143"/>
       <c r="I15" s="143"/>
       <c r="J15" s="143"/>
       <c r="K15" s="143"/>
       <c r="L15" s="145"/>
-      <c r="M15" s="151"/>
+      <c r="M15" s="149"/>
       <c r="N15" s="145"/>
-      <c r="O15" s="151"/>
+      <c r="O15" s="149"/>
       <c r="P15" s="141"/>
       <c r="Q15" s="157"/>
       <c r="R15" s="155"/>
@@ -5905,8 +5905,8 @@
     </row>
     <row r="16" spans="1:142" ht="9" customHeight="1">
       <c r="B16" s="200"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="150"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="152"/>
       <c r="E16" s="154"/>
       <c r="F16" s="142"/>
       <c r="G16" s="144"/>
@@ -5915,9 +5915,9 @@
       <c r="J16" s="144"/>
       <c r="K16" s="144"/>
       <c r="L16" s="146"/>
-      <c r="M16" s="152"/>
+      <c r="M16" s="150"/>
       <c r="N16" s="146"/>
-      <c r="O16" s="152"/>
+      <c r="O16" s="150"/>
       <c r="P16" s="142"/>
       <c r="Q16" s="158"/>
       <c r="R16" s="156"/>
@@ -6051,26 +6051,26 @@
       <c r="EL16" s="96"/>
     </row>
     <row r="17" spans="2:142" ht="9" customHeight="1">
-      <c r="B17" s="199"/>
-      <c r="C17" s="191" t="s">
+      <c r="B17" s="201"/>
+      <c r="C17" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="149"/>
+      <c r="D17" s="151"/>
       <c r="E17" s="153" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="141"/>
       <c r="G17" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="143"/>
       <c r="I17" s="143"/>
       <c r="J17" s="143"/>
       <c r="K17" s="143"/>
       <c r="L17" s="145"/>
-      <c r="M17" s="151"/>
+      <c r="M17" s="149"/>
       <c r="N17" s="145"/>
-      <c r="O17" s="151"/>
+      <c r="O17" s="149"/>
       <c r="P17" s="141"/>
       <c r="Q17" s="157"/>
       <c r="R17" s="155"/>
@@ -6203,8 +6203,8 @@
     </row>
     <row r="18" spans="2:142" ht="9" customHeight="1">
       <c r="B18" s="200"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="150"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="152"/>
       <c r="E18" s="154"/>
       <c r="F18" s="142"/>
       <c r="G18" s="144"/>
@@ -6213,9 +6213,9 @@
       <c r="J18" s="144"/>
       <c r="K18" s="144"/>
       <c r="L18" s="146"/>
-      <c r="M18" s="152"/>
+      <c r="M18" s="150"/>
       <c r="N18" s="146"/>
-      <c r="O18" s="152"/>
+      <c r="O18" s="150"/>
       <c r="P18" s="142"/>
       <c r="Q18" s="158"/>
       <c r="R18" s="156"/>
@@ -6347,9 +6347,9 @@
       <c r="EL18" s="96"/>
     </row>
     <row r="19" spans="2:142" ht="9" customHeight="1">
-      <c r="B19" s="199"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="149"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="153" t="s">
         <v>62</v>
       </c>
@@ -6357,16 +6357,16 @@
         <v>63</v>
       </c>
       <c r="G19" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" s="143"/>
       <c r="I19" s="143"/>
       <c r="J19" s="143"/>
       <c r="K19" s="143"/>
       <c r="L19" s="145"/>
-      <c r="M19" s="151"/>
+      <c r="M19" s="149"/>
       <c r="N19" s="145"/>
-      <c r="O19" s="151"/>
+      <c r="O19" s="149"/>
       <c r="P19" s="141"/>
       <c r="Q19" s="157"/>
       <c r="R19" s="155"/>
@@ -6499,8 +6499,8 @@
     </row>
     <row r="20" spans="2:142" ht="9" customHeight="1">
       <c r="B20" s="200"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="150"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="152"/>
       <c r="E20" s="154"/>
       <c r="F20" s="142"/>
       <c r="G20" s="144"/>
@@ -6509,9 +6509,9 @@
       <c r="J20" s="144"/>
       <c r="K20" s="144"/>
       <c r="L20" s="146"/>
-      <c r="M20" s="152"/>
+      <c r="M20" s="150"/>
       <c r="N20" s="146"/>
-      <c r="O20" s="152"/>
+      <c r="O20" s="150"/>
       <c r="P20" s="142"/>
       <c r="Q20" s="158"/>
       <c r="R20" s="156"/>
@@ -6643,24 +6643,24 @@
       <c r="EL20" s="96"/>
     </row>
     <row r="21" spans="2:142" ht="9" customHeight="1">
-      <c r="B21" s="199"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="149"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="153"/>
       <c r="F21" s="141" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H21" s="143"/>
       <c r="I21" s="143"/>
       <c r="J21" s="143"/>
       <c r="K21" s="143"/>
       <c r="L21" s="145"/>
-      <c r="M21" s="151"/>
+      <c r="M21" s="149"/>
       <c r="N21" s="145"/>
-      <c r="O21" s="151"/>
+      <c r="O21" s="149"/>
       <c r="P21" s="141"/>
       <c r="Q21" s="157"/>
       <c r="R21" s="155"/>
@@ -6793,8 +6793,8 @@
     </row>
     <row r="22" spans="2:142" ht="9" customHeight="1">
       <c r="B22" s="200"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="150"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="152"/>
       <c r="E22" s="154"/>
       <c r="F22" s="142"/>
       <c r="G22" s="144"/>
@@ -6803,9 +6803,9 @@
       <c r="J22" s="144"/>
       <c r="K22" s="144"/>
       <c r="L22" s="146"/>
-      <c r="M22" s="152"/>
+      <c r="M22" s="150"/>
       <c r="N22" s="146"/>
-      <c r="O22" s="152"/>
+      <c r="O22" s="150"/>
       <c r="P22" s="142"/>
       <c r="Q22" s="158"/>
       <c r="R22" s="156"/>
@@ -6935,26 +6935,26 @@
       <c r="EL22" s="96"/>
     </row>
     <row r="23" spans="2:142" ht="9" customHeight="1">
-      <c r="B23" s="199"/>
-      <c r="C23" s="191" t="s">
+      <c r="B23" s="201"/>
+      <c r="C23" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="149"/>
+      <c r="D23" s="151"/>
       <c r="E23" s="153" t="s">
         <v>66</v>
       </c>
       <c r="F23" s="141"/>
       <c r="G23" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H23" s="143"/>
       <c r="I23" s="143"/>
       <c r="J23" s="143"/>
       <c r="K23" s="143"/>
       <c r="L23" s="145"/>
-      <c r="M23" s="151"/>
+      <c r="M23" s="149"/>
       <c r="N23" s="145"/>
-      <c r="O23" s="151"/>
+      <c r="O23" s="149"/>
       <c r="P23" s="141"/>
       <c r="Q23" s="157"/>
       <c r="R23" s="155"/>
@@ -7087,8 +7087,8 @@
     </row>
     <row r="24" spans="2:142" ht="9" customHeight="1">
       <c r="B24" s="200"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="150"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="152"/>
       <c r="E24" s="154"/>
       <c r="F24" s="142"/>
       <c r="G24" s="144"/>
@@ -7097,9 +7097,9 @@
       <c r="J24" s="144"/>
       <c r="K24" s="144"/>
       <c r="L24" s="146"/>
-      <c r="M24" s="152"/>
+      <c r="M24" s="150"/>
       <c r="N24" s="146"/>
-      <c r="O24" s="152"/>
+      <c r="O24" s="150"/>
       <c r="P24" s="142"/>
       <c r="Q24" s="158"/>
       <c r="R24" s="156"/>
@@ -7229,24 +7229,24 @@
       <c r="EL24" s="96"/>
     </row>
     <row r="25" spans="2:142" ht="9" customHeight="1">
-      <c r="B25" s="199"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="149"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="151"/>
       <c r="E25" s="153" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="141"/>
       <c r="G25" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="143"/>
       <c r="I25" s="143"/>
       <c r="J25" s="143"/>
       <c r="K25" s="143"/>
       <c r="L25" s="145"/>
-      <c r="M25" s="151"/>
+      <c r="M25" s="149"/>
       <c r="N25" s="145"/>
-      <c r="O25" s="151"/>
+      <c r="O25" s="149"/>
       <c r="P25" s="141"/>
       <c r="Q25" s="157"/>
       <c r="R25" s="155"/>
@@ -7379,8 +7379,8 @@
     </row>
     <row r="26" spans="2:142" ht="9" customHeight="1">
       <c r="B26" s="200"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="150"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="154"/>
       <c r="F26" s="142"/>
       <c r="G26" s="144"/>
@@ -7389,9 +7389,9 @@
       <c r="J26" s="144"/>
       <c r="K26" s="144"/>
       <c r="L26" s="146"/>
-      <c r="M26" s="152"/>
+      <c r="M26" s="150"/>
       <c r="N26" s="146"/>
-      <c r="O26" s="152"/>
+      <c r="O26" s="150"/>
       <c r="P26" s="142"/>
       <c r="Q26" s="158"/>
       <c r="R26" s="156"/>
@@ -7521,24 +7521,24 @@
       <c r="EL26" s="96"/>
     </row>
     <row r="27" spans="2:142" ht="9" customHeight="1">
-      <c r="B27" s="199"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="149"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="151"/>
       <c r="E27" s="153" t="s">
         <v>68</v>
       </c>
       <c r="F27" s="141"/>
       <c r="G27" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H27" s="143"/>
       <c r="I27" s="143"/>
       <c r="J27" s="143"/>
       <c r="K27" s="143"/>
       <c r="L27" s="145"/>
-      <c r="M27" s="151"/>
+      <c r="M27" s="149"/>
       <c r="N27" s="145"/>
-      <c r="O27" s="151"/>
+      <c r="O27" s="149"/>
       <c r="P27" s="141"/>
       <c r="Q27" s="157"/>
       <c r="R27" s="155"/>
@@ -7671,8 +7671,8 @@
     </row>
     <row r="28" spans="2:142" ht="9" customHeight="1">
       <c r="B28" s="200"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="150"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="152"/>
       <c r="E28" s="154"/>
       <c r="F28" s="142"/>
       <c r="G28" s="144"/>
@@ -7681,9 +7681,9 @@
       <c r="J28" s="144"/>
       <c r="K28" s="144"/>
       <c r="L28" s="146"/>
-      <c r="M28" s="152"/>
+      <c r="M28" s="150"/>
       <c r="N28" s="146"/>
-      <c r="O28" s="152"/>
+      <c r="O28" s="150"/>
       <c r="P28" s="142"/>
       <c r="Q28" s="158"/>
       <c r="R28" s="156"/>
@@ -7813,28 +7813,28 @@
       <c r="EL28" s="96"/>
     </row>
     <row r="29" spans="2:142" ht="9" customHeight="1">
-      <c r="B29" s="199" t="s">
+      <c r="B29" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="191" t="s">
+      <c r="C29" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="149"/>
+      <c r="D29" s="151"/>
       <c r="E29" s="153" t="s">
         <v>70</v>
       </c>
       <c r="F29" s="141"/>
       <c r="G29" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H29" s="143"/>
       <c r="I29" s="143"/>
       <c r="J29" s="143"/>
       <c r="K29" s="143"/>
       <c r="L29" s="145"/>
-      <c r="M29" s="151"/>
+      <c r="M29" s="149"/>
       <c r="N29" s="145"/>
-      <c r="O29" s="151"/>
+      <c r="O29" s="149"/>
       <c r="P29" s="141"/>
       <c r="Q29" s="157"/>
       <c r="R29" s="155"/>
@@ -7965,8 +7965,8 @@
     </row>
     <row r="30" spans="2:142" ht="9" customHeight="1">
       <c r="B30" s="200"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="150"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="152"/>
       <c r="E30" s="154"/>
       <c r="F30" s="142"/>
       <c r="G30" s="144"/>
@@ -7975,9 +7975,9 @@
       <c r="J30" s="144"/>
       <c r="K30" s="144"/>
       <c r="L30" s="146"/>
-      <c r="M30" s="152"/>
+      <c r="M30" s="150"/>
       <c r="N30" s="146"/>
-      <c r="O30" s="152"/>
+      <c r="O30" s="150"/>
       <c r="P30" s="142"/>
       <c r="Q30" s="158"/>
       <c r="R30" s="156"/>
@@ -8107,24 +8107,24 @@
       <c r="EL30" s="96"/>
     </row>
     <row r="31" spans="2:142" ht="9" customHeight="1">
-      <c r="B31" s="199"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="149"/>
+      <c r="B31" s="201"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="151"/>
       <c r="E31" s="153" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="141"/>
       <c r="G31" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H31" s="143"/>
       <c r="I31" s="143"/>
       <c r="J31" s="143"/>
       <c r="K31" s="143"/>
       <c r="L31" s="145"/>
-      <c r="M31" s="151"/>
+      <c r="M31" s="149"/>
       <c r="N31" s="145"/>
-      <c r="O31" s="151"/>
+      <c r="O31" s="149"/>
       <c r="P31" s="141"/>
       <c r="Q31" s="157"/>
       <c r="R31" s="155"/>
@@ -8255,8 +8255,8 @@
     </row>
     <row r="32" spans="2:142" ht="9" customHeight="1">
       <c r="B32" s="200"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="150"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="152"/>
       <c r="E32" s="154"/>
       <c r="F32" s="142"/>
       <c r="G32" s="144"/>
@@ -8265,9 +8265,9 @@
       <c r="J32" s="144"/>
       <c r="K32" s="144"/>
       <c r="L32" s="146"/>
-      <c r="M32" s="152"/>
+      <c r="M32" s="150"/>
       <c r="N32" s="146"/>
-      <c r="O32" s="152"/>
+      <c r="O32" s="150"/>
       <c r="P32" s="142"/>
       <c r="Q32" s="158"/>
       <c r="R32" s="156"/>
@@ -8397,9 +8397,9 @@
       <c r="EL32" s="96"/>
     </row>
     <row r="33" spans="2:142" ht="9" customHeight="1">
-      <c r="B33" s="199"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="149"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="153" t="s">
         <v>52</v>
       </c>
@@ -8407,16 +8407,16 @@
         <v>72</v>
       </c>
       <c r="G33" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H33" s="143"/>
       <c r="I33" s="143"/>
       <c r="J33" s="143"/>
       <c r="K33" s="143"/>
       <c r="L33" s="145"/>
-      <c r="M33" s="151"/>
+      <c r="M33" s="149"/>
       <c r="N33" s="145"/>
-      <c r="O33" s="151"/>
+      <c r="O33" s="149"/>
       <c r="P33" s="141"/>
       <c r="Q33" s="157"/>
       <c r="R33" s="155"/>
@@ -8547,8 +8547,8 @@
     </row>
     <row r="34" spans="2:142" ht="9" customHeight="1">
       <c r="B34" s="200"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="150"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="152"/>
       <c r="E34" s="154"/>
       <c r="F34" s="142"/>
       <c r="G34" s="144"/>
@@ -8557,9 +8557,9 @@
       <c r="J34" s="144"/>
       <c r="K34" s="144"/>
       <c r="L34" s="146"/>
-      <c r="M34" s="152"/>
+      <c r="M34" s="150"/>
       <c r="N34" s="146"/>
-      <c r="O34" s="152"/>
+      <c r="O34" s="150"/>
       <c r="P34" s="142"/>
       <c r="Q34" s="158"/>
       <c r="R34" s="156"/>
@@ -8689,24 +8689,24 @@
       <c r="EL34" s="96"/>
     </row>
     <row r="35" spans="2:142" ht="9" customHeight="1">
-      <c r="B35" s="199"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="149"/>
+      <c r="B35" s="201"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="151"/>
       <c r="E35" s="153"/>
       <c r="F35" s="141" t="s">
         <v>71</v>
       </c>
       <c r="G35" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H35" s="143"/>
       <c r="I35" s="143"/>
       <c r="J35" s="143"/>
       <c r="K35" s="143"/>
       <c r="L35" s="145"/>
-      <c r="M35" s="151"/>
+      <c r="M35" s="149"/>
       <c r="N35" s="145"/>
-      <c r="O35" s="151"/>
+      <c r="O35" s="149"/>
       <c r="P35" s="141"/>
       <c r="Q35" s="157"/>
       <c r="R35" s="155"/>
@@ -8837,8 +8837,8 @@
     </row>
     <row r="36" spans="2:142" ht="9" customHeight="1">
       <c r="B36" s="200"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="150"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="152"/>
       <c r="E36" s="154"/>
       <c r="F36" s="142"/>
       <c r="G36" s="144"/>
@@ -8847,9 +8847,9 @@
       <c r="J36" s="144"/>
       <c r="K36" s="144"/>
       <c r="L36" s="146"/>
-      <c r="M36" s="152"/>
+      <c r="M36" s="150"/>
       <c r="N36" s="146"/>
-      <c r="O36" s="152"/>
+      <c r="O36" s="150"/>
       <c r="P36" s="142"/>
       <c r="Q36" s="158"/>
       <c r="R36" s="156"/>
@@ -8979,24 +8979,24 @@
       <c r="EL36" s="96"/>
     </row>
     <row r="37" spans="2:142" ht="9" customHeight="1">
-      <c r="B37" s="199"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="149"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="153"/>
       <c r="F37" s="141" t="s">
         <v>73</v>
       </c>
       <c r="G37" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H37" s="143"/>
       <c r="I37" s="143"/>
       <c r="J37" s="143"/>
       <c r="K37" s="143"/>
       <c r="L37" s="145"/>
-      <c r="M37" s="151"/>
+      <c r="M37" s="149"/>
       <c r="N37" s="145"/>
-      <c r="O37" s="151"/>
+      <c r="O37" s="149"/>
       <c r="P37" s="141"/>
       <c r="Q37" s="157"/>
       <c r="R37" s="155"/>
@@ -9127,8 +9127,8 @@
     </row>
     <row r="38" spans="2:142" ht="9" customHeight="1">
       <c r="B38" s="200"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="150"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="152"/>
       <c r="E38" s="154"/>
       <c r="F38" s="142"/>
       <c r="G38" s="144"/>
@@ -9137,9 +9137,9 @@
       <c r="J38" s="144"/>
       <c r="K38" s="144"/>
       <c r="L38" s="146"/>
-      <c r="M38" s="152"/>
+      <c r="M38" s="150"/>
       <c r="N38" s="146"/>
-      <c r="O38" s="152"/>
+      <c r="O38" s="150"/>
       <c r="P38" s="142"/>
       <c r="Q38" s="158"/>
       <c r="R38" s="156"/>
@@ -9269,9 +9269,9 @@
       <c r="EL38" s="96"/>
     </row>
     <row r="39" spans="2:142" ht="9" customHeight="1">
-      <c r="B39" s="199"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="149"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="151"/>
       <c r="E39" s="153" t="s">
         <v>56</v>
       </c>
@@ -9279,16 +9279,16 @@
         <v>74</v>
       </c>
       <c r="G39" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H39" s="143"/>
       <c r="I39" s="143"/>
       <c r="J39" s="143"/>
       <c r="K39" s="143"/>
       <c r="L39" s="145"/>
-      <c r="M39" s="151"/>
+      <c r="M39" s="149"/>
       <c r="N39" s="145"/>
-      <c r="O39" s="151"/>
+      <c r="O39" s="149"/>
       <c r="P39" s="141"/>
       <c r="Q39" s="157"/>
       <c r="R39" s="155"/>
@@ -9419,8 +9419,8 @@
     </row>
     <row r="40" spans="2:142" ht="9" customHeight="1">
       <c r="B40" s="200"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="150"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="152"/>
       <c r="E40" s="154"/>
       <c r="F40" s="142"/>
       <c r="G40" s="144"/>
@@ -9429,9 +9429,9 @@
       <c r="J40" s="144"/>
       <c r="K40" s="144"/>
       <c r="L40" s="146"/>
-      <c r="M40" s="152"/>
+      <c r="M40" s="150"/>
       <c r="N40" s="146"/>
-      <c r="O40" s="152"/>
+      <c r="O40" s="150"/>
       <c r="P40" s="142"/>
       <c r="Q40" s="158"/>
       <c r="R40" s="156"/>
@@ -9561,24 +9561,24 @@
       <c r="EL40" s="96"/>
     </row>
     <row r="41" spans="2:142" ht="9" customHeight="1">
-      <c r="B41" s="199"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="149"/>
+      <c r="B41" s="201"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="153"/>
       <c r="F41" s="141" t="s">
         <v>75</v>
       </c>
       <c r="G41" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H41" s="143"/>
       <c r="I41" s="143"/>
       <c r="J41" s="143"/>
       <c r="K41" s="143"/>
       <c r="L41" s="145"/>
-      <c r="M41" s="151"/>
+      <c r="M41" s="149"/>
       <c r="N41" s="145"/>
-      <c r="O41" s="151"/>
+      <c r="O41" s="149"/>
       <c r="P41" s="141"/>
       <c r="Q41" s="157"/>
       <c r="R41" s="155"/>
@@ -9709,8 +9709,8 @@
     </row>
     <row r="42" spans="2:142" ht="9" customHeight="1">
       <c r="B42" s="200"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="150"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="152"/>
       <c r="E42" s="154"/>
       <c r="F42" s="142"/>
       <c r="G42" s="144"/>
@@ -9719,9 +9719,9 @@
       <c r="J42" s="144"/>
       <c r="K42" s="144"/>
       <c r="L42" s="146"/>
-      <c r="M42" s="152"/>
+      <c r="M42" s="150"/>
       <c r="N42" s="146"/>
-      <c r="O42" s="152"/>
+      <c r="O42" s="150"/>
       <c r="P42" s="142"/>
       <c r="Q42" s="158"/>
       <c r="R42" s="156"/>
@@ -9851,28 +9851,28 @@
       <c r="EL42" s="96"/>
     </row>
     <row r="43" spans="2:142" ht="9" customHeight="1">
-      <c r="B43" s="199" t="s">
+      <c r="B43" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="149"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="153" t="s">
         <v>77</v>
       </c>
       <c r="F43" s="141"/>
       <c r="G43" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H43" s="143"/>
       <c r="I43" s="143"/>
       <c r="J43" s="143"/>
       <c r="K43" s="143"/>
       <c r="L43" s="145"/>
-      <c r="M43" s="151"/>
+      <c r="M43" s="149"/>
       <c r="N43" s="145"/>
-      <c r="O43" s="151"/>
+      <c r="O43" s="149"/>
       <c r="P43" s="141"/>
       <c r="Q43" s="157"/>
       <c r="R43" s="155"/>
@@ -10003,8 +10003,8 @@
     </row>
     <row r="44" spans="2:142" ht="9" customHeight="1">
       <c r="B44" s="200"/>
-      <c r="C44" s="191"/>
-      <c r="D44" s="150"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="152"/>
       <c r="E44" s="154"/>
       <c r="F44" s="142"/>
       <c r="G44" s="144"/>
@@ -10013,9 +10013,9 @@
       <c r="J44" s="144"/>
       <c r="K44" s="144"/>
       <c r="L44" s="146"/>
-      <c r="M44" s="152"/>
+      <c r="M44" s="150"/>
       <c r="N44" s="146"/>
-      <c r="O44" s="152"/>
+      <c r="O44" s="150"/>
       <c r="P44" s="142"/>
       <c r="Q44" s="158"/>
       <c r="R44" s="156"/>
@@ -10145,9 +10145,9 @@
       <c r="EL44" s="96"/>
     </row>
     <row r="45" spans="2:142" ht="9" customHeight="1">
-      <c r="B45" s="199"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="149"/>
+      <c r="B45" s="201"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="151"/>
       <c r="E45" s="153" t="s">
         <v>52</v>
       </c>
@@ -10155,16 +10155,16 @@
         <v>78</v>
       </c>
       <c r="G45" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H45" s="143"/>
       <c r="I45" s="143"/>
       <c r="J45" s="143"/>
       <c r="K45" s="143"/>
       <c r="L45" s="145"/>
-      <c r="M45" s="151"/>
+      <c r="M45" s="149"/>
       <c r="N45" s="145"/>
-      <c r="O45" s="151"/>
+      <c r="O45" s="149"/>
       <c r="P45" s="141"/>
       <c r="Q45" s="157"/>
       <c r="R45" s="155"/>
@@ -10295,8 +10295,8 @@
     </row>
     <row r="46" spans="2:142" ht="9" customHeight="1">
       <c r="B46" s="200"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="150"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="152"/>
       <c r="E46" s="154"/>
       <c r="F46" s="142"/>
       <c r="G46" s="144"/>
@@ -10305,9 +10305,9 @@
       <c r="J46" s="144"/>
       <c r="K46" s="144"/>
       <c r="L46" s="146"/>
-      <c r="M46" s="152"/>
+      <c r="M46" s="150"/>
       <c r="N46" s="146"/>
-      <c r="O46" s="152"/>
+      <c r="O46" s="150"/>
       <c r="P46" s="142"/>
       <c r="Q46" s="158"/>
       <c r="R46" s="156"/>
@@ -10437,24 +10437,24 @@
       <c r="EL46" s="96"/>
     </row>
     <row r="47" spans="2:142" ht="9" customHeight="1">
-      <c r="B47" s="199"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="149"/>
+      <c r="B47" s="201"/>
+      <c r="C47" s="187"/>
+      <c r="D47" s="151"/>
       <c r="E47" s="153"/>
       <c r="F47" s="141" t="s">
         <v>79</v>
       </c>
       <c r="G47" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H47" s="143"/>
       <c r="I47" s="143"/>
       <c r="J47" s="143"/>
       <c r="K47" s="143"/>
       <c r="L47" s="145"/>
-      <c r="M47" s="151"/>
+      <c r="M47" s="149"/>
       <c r="N47" s="145"/>
-      <c r="O47" s="151"/>
+      <c r="O47" s="149"/>
       <c r="P47" s="141"/>
       <c r="Q47" s="157"/>
       <c r="R47" s="155"/>
@@ -10585,8 +10585,8 @@
     </row>
     <row r="48" spans="2:142" ht="9" customHeight="1">
       <c r="B48" s="200"/>
-      <c r="C48" s="191"/>
-      <c r="D48" s="150"/>
+      <c r="C48" s="187"/>
+      <c r="D48" s="152"/>
       <c r="E48" s="154"/>
       <c r="F48" s="142"/>
       <c r="G48" s="144"/>
@@ -10595,9 +10595,9 @@
       <c r="J48" s="144"/>
       <c r="K48" s="144"/>
       <c r="L48" s="146"/>
-      <c r="M48" s="152"/>
+      <c r="M48" s="150"/>
       <c r="N48" s="146"/>
-      <c r="O48" s="152"/>
+      <c r="O48" s="150"/>
       <c r="P48" s="142"/>
       <c r="Q48" s="158"/>
       <c r="R48" s="156"/>
@@ -10727,24 +10727,24 @@
       <c r="EL48" s="96"/>
     </row>
     <row r="49" spans="2:142" ht="9" customHeight="1">
-      <c r="B49" s="199"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="149"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="187"/>
+      <c r="D49" s="151"/>
       <c r="E49" s="153"/>
       <c r="F49" s="141" t="s">
         <v>80</v>
       </c>
       <c r="G49" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H49" s="143"/>
       <c r="I49" s="143"/>
       <c r="J49" s="143"/>
       <c r="K49" s="143"/>
       <c r="L49" s="145"/>
-      <c r="M49" s="151"/>
+      <c r="M49" s="149"/>
       <c r="N49" s="145"/>
-      <c r="O49" s="151"/>
+      <c r="O49" s="149"/>
       <c r="P49" s="141"/>
       <c r="Q49" s="157"/>
       <c r="R49" s="155"/>
@@ -10875,8 +10875,8 @@
     </row>
     <row r="50" spans="2:142" ht="9" customHeight="1">
       <c r="B50" s="200"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="150"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="152"/>
       <c r="E50" s="154"/>
       <c r="F50" s="142"/>
       <c r="G50" s="144"/>
@@ -10885,9 +10885,9 @@
       <c r="J50" s="144"/>
       <c r="K50" s="144"/>
       <c r="L50" s="146"/>
-      <c r="M50" s="152"/>
+      <c r="M50" s="150"/>
       <c r="N50" s="146"/>
-      <c r="O50" s="152"/>
+      <c r="O50" s="150"/>
       <c r="P50" s="142"/>
       <c r="Q50" s="158"/>
       <c r="R50" s="156"/>
@@ -11017,24 +11017,24 @@
       <c r="EL50" s="96"/>
     </row>
     <row r="51" spans="2:142" ht="9" customHeight="1">
-      <c r="B51" s="199"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="149"/>
+      <c r="B51" s="201"/>
+      <c r="C51" s="187"/>
+      <c r="D51" s="151"/>
       <c r="E51" s="153"/>
       <c r="F51" s="141" t="s">
         <v>81</v>
       </c>
       <c r="G51" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H51" s="143"/>
       <c r="I51" s="143"/>
       <c r="J51" s="143"/>
       <c r="K51" s="143"/>
       <c r="L51" s="145"/>
-      <c r="M51" s="151"/>
+      <c r="M51" s="149"/>
       <c r="N51" s="145"/>
-      <c r="O51" s="151"/>
+      <c r="O51" s="149"/>
       <c r="P51" s="141"/>
       <c r="Q51" s="157"/>
       <c r="R51" s="155"/>
@@ -11165,8 +11165,8 @@
     </row>
     <row r="52" spans="2:142" ht="9" customHeight="1">
       <c r="B52" s="200"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="150"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="152"/>
       <c r="E52" s="154"/>
       <c r="F52" s="142"/>
       <c r="G52" s="144"/>
@@ -11175,9 +11175,9 @@
       <c r="J52" s="144"/>
       <c r="K52" s="144"/>
       <c r="L52" s="146"/>
-      <c r="M52" s="152"/>
+      <c r="M52" s="150"/>
       <c r="N52" s="146"/>
-      <c r="O52" s="152"/>
+      <c r="O52" s="150"/>
       <c r="P52" s="142"/>
       <c r="Q52" s="158"/>
       <c r="R52" s="156"/>
@@ -11307,24 +11307,24 @@
       <c r="EL52" s="96"/>
     </row>
     <row r="53" spans="2:142" ht="9" customHeight="1">
-      <c r="B53" s="199"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="149"/>
+      <c r="B53" s="201"/>
+      <c r="C53" s="187"/>
+      <c r="D53" s="151"/>
       <c r="E53" s="153" t="s">
         <v>82</v>
       </c>
       <c r="F53" s="141"/>
       <c r="G53" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H53" s="143"/>
       <c r="I53" s="143"/>
       <c r="J53" s="143"/>
       <c r="K53" s="143"/>
       <c r="L53" s="145"/>
-      <c r="M53" s="151"/>
+      <c r="M53" s="149"/>
       <c r="N53" s="145"/>
-      <c r="O53" s="151"/>
+      <c r="O53" s="149"/>
       <c r="P53" s="141"/>
       <c r="Q53" s="157"/>
       <c r="R53" s="155"/>
@@ -11455,8 +11455,8 @@
     </row>
     <row r="54" spans="2:142" ht="9" customHeight="1">
       <c r="B54" s="200"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="150"/>
+      <c r="C54" s="187"/>
+      <c r="D54" s="152"/>
       <c r="E54" s="154"/>
       <c r="F54" s="142"/>
       <c r="G54" s="144"/>
@@ -11465,9 +11465,9 @@
       <c r="J54" s="144"/>
       <c r="K54" s="144"/>
       <c r="L54" s="146"/>
-      <c r="M54" s="152"/>
+      <c r="M54" s="150"/>
       <c r="N54" s="146"/>
-      <c r="O54" s="152"/>
+      <c r="O54" s="150"/>
       <c r="P54" s="142"/>
       <c r="Q54" s="158"/>
       <c r="R54" s="156"/>
@@ -11597,26 +11597,26 @@
       <c r="EL54" s="96"/>
     </row>
     <row r="55" spans="2:142" ht="9" customHeight="1">
-      <c r="B55" s="199"/>
-      <c r="C55" s="191" t="s">
+      <c r="B55" s="201"/>
+      <c r="C55" s="187" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="149"/>
+      <c r="D55" s="151"/>
       <c r="E55" s="153" t="s">
         <v>84</v>
       </c>
       <c r="F55" s="141"/>
       <c r="G55" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H55" s="143"/>
       <c r="I55" s="143"/>
       <c r="J55" s="143"/>
       <c r="K55" s="143"/>
       <c r="L55" s="145"/>
-      <c r="M55" s="151"/>
+      <c r="M55" s="149"/>
       <c r="N55" s="145"/>
-      <c r="O55" s="151"/>
+      <c r="O55" s="149"/>
       <c r="P55" s="141"/>
       <c r="Q55" s="157"/>
       <c r="R55" s="155"/>
@@ -11747,8 +11747,8 @@
     </row>
     <row r="56" spans="2:142" ht="15.75" customHeight="1">
       <c r="B56" s="200"/>
-      <c r="C56" s="191"/>
-      <c r="D56" s="150"/>
+      <c r="C56" s="187"/>
+      <c r="D56" s="152"/>
       <c r="E56" s="154"/>
       <c r="F56" s="142"/>
       <c r="G56" s="144"/>
@@ -11757,9 +11757,9 @@
       <c r="J56" s="144"/>
       <c r="K56" s="144"/>
       <c r="L56" s="146"/>
-      <c r="M56" s="152"/>
+      <c r="M56" s="150"/>
       <c r="N56" s="146"/>
-      <c r="O56" s="152"/>
+      <c r="O56" s="150"/>
       <c r="P56" s="142"/>
       <c r="Q56" s="158"/>
       <c r="R56" s="156"/>
@@ -11889,24 +11889,24 @@
       <c r="EL56" s="96"/>
     </row>
     <row r="57" spans="2:142" ht="9" customHeight="1">
-      <c r="B57" s="199"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="149"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="151"/>
       <c r="E57" s="153" t="s">
         <v>85</v>
       </c>
       <c r="F57" s="141"/>
       <c r="G57" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H57" s="143"/>
       <c r="I57" s="143"/>
       <c r="J57" s="143"/>
       <c r="K57" s="143"/>
       <c r="L57" s="145"/>
-      <c r="M57" s="151"/>
+      <c r="M57" s="149"/>
       <c r="N57" s="145"/>
-      <c r="O57" s="151"/>
+      <c r="O57" s="149"/>
       <c r="P57" s="141"/>
       <c r="Q57" s="157"/>
       <c r="R57" s="155"/>
@@ -12037,8 +12037,8 @@
     </row>
     <row r="58" spans="2:142" ht="19.5" customHeight="1">
       <c r="B58" s="200"/>
-      <c r="C58" s="191"/>
-      <c r="D58" s="150"/>
+      <c r="C58" s="187"/>
+      <c r="D58" s="152"/>
       <c r="E58" s="154"/>
       <c r="F58" s="142"/>
       <c r="G58" s="144"/>
@@ -12047,9 +12047,9 @@
       <c r="J58" s="144"/>
       <c r="K58" s="144"/>
       <c r="L58" s="146"/>
-      <c r="M58" s="152"/>
+      <c r="M58" s="150"/>
       <c r="N58" s="146"/>
-      <c r="O58" s="152"/>
+      <c r="O58" s="150"/>
       <c r="P58" s="142"/>
       <c r="Q58" s="158"/>
       <c r="R58" s="156"/>
@@ -12179,24 +12179,24 @@
       <c r="EL58" s="96"/>
     </row>
     <row r="59" spans="2:142" ht="9" customHeight="1">
-      <c r="B59" s="199"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="149"/>
+      <c r="B59" s="201"/>
+      <c r="C59" s="187"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="153" t="s">
         <v>86</v>
       </c>
       <c r="F59" s="141"/>
       <c r="G59" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H59" s="143"/>
       <c r="I59" s="143"/>
       <c r="J59" s="143"/>
       <c r="K59" s="143"/>
       <c r="L59" s="145"/>
-      <c r="M59" s="151"/>
+      <c r="M59" s="149"/>
       <c r="N59" s="145"/>
-      <c r="O59" s="151"/>
+      <c r="O59" s="149"/>
       <c r="P59" s="141"/>
       <c r="Q59" s="157"/>
       <c r="R59" s="155"/>
@@ -12327,8 +12327,8 @@
     </row>
     <row r="60" spans="2:142" ht="9" customHeight="1">
       <c r="B60" s="200"/>
-      <c r="C60" s="191"/>
-      <c r="D60" s="150"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="152"/>
       <c r="E60" s="154"/>
       <c r="F60" s="142"/>
       <c r="G60" s="144"/>
@@ -12337,9 +12337,9 @@
       <c r="J60" s="144"/>
       <c r="K60" s="144"/>
       <c r="L60" s="146"/>
-      <c r="M60" s="152"/>
+      <c r="M60" s="150"/>
       <c r="N60" s="146"/>
-      <c r="O60" s="152"/>
+      <c r="O60" s="150"/>
       <c r="P60" s="142"/>
       <c r="Q60" s="158"/>
       <c r="R60" s="156"/>
@@ -12469,24 +12469,24 @@
       <c r="EL60" s="96"/>
     </row>
     <row r="61" spans="2:142" ht="9" customHeight="1">
-      <c r="B61" s="199"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="149"/>
+      <c r="B61" s="201"/>
+      <c r="C61" s="187"/>
+      <c r="D61" s="151"/>
       <c r="E61" s="153" t="s">
         <v>87</v>
       </c>
       <c r="F61" s="141"/>
       <c r="G61" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H61" s="143"/>
       <c r="I61" s="143"/>
       <c r="J61" s="143"/>
       <c r="K61" s="143"/>
       <c r="L61" s="145"/>
-      <c r="M61" s="151"/>
+      <c r="M61" s="149"/>
       <c r="N61" s="145"/>
-      <c r="O61" s="151"/>
+      <c r="O61" s="149"/>
       <c r="P61" s="141"/>
       <c r="Q61" s="157"/>
       <c r="R61" s="155"/>
@@ -12617,8 +12617,8 @@
     </row>
     <row r="62" spans="2:142" ht="9" customHeight="1">
       <c r="B62" s="200"/>
-      <c r="C62" s="191"/>
-      <c r="D62" s="150"/>
+      <c r="C62" s="187"/>
+      <c r="D62" s="152"/>
       <c r="E62" s="154"/>
       <c r="F62" s="142"/>
       <c r="G62" s="144"/>
@@ -12627,9 +12627,9 @@
       <c r="J62" s="144"/>
       <c r="K62" s="144"/>
       <c r="L62" s="146"/>
-      <c r="M62" s="152"/>
+      <c r="M62" s="150"/>
       <c r="N62" s="146"/>
-      <c r="O62" s="152"/>
+      <c r="O62" s="150"/>
       <c r="P62" s="142"/>
       <c r="Q62" s="158"/>
       <c r="R62" s="156"/>
@@ -12759,28 +12759,28 @@
       <c r="EL62" s="96"/>
     </row>
     <row r="63" spans="2:142" ht="9" customHeight="1">
-      <c r="B63" s="199" t="s">
+      <c r="B63" s="201" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="187" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="191" t="s">
+      <c r="D63" s="151"/>
+      <c r="E63" s="153" t="s">
         <v>107</v>
-      </c>
-      <c r="D63" s="149"/>
-      <c r="E63" s="153" t="s">
-        <v>108</v>
       </c>
       <c r="F63" s="141"/>
       <c r="G63" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H63" s="143"/>
       <c r="I63" s="143"/>
       <c r="J63" s="143"/>
       <c r="K63" s="143"/>
       <c r="L63" s="145"/>
-      <c r="M63" s="151"/>
+      <c r="M63" s="149"/>
       <c r="N63" s="145"/>
-      <c r="O63" s="151"/>
+      <c r="O63" s="149"/>
       <c r="P63" s="141"/>
       <c r="Q63" s="157"/>
       <c r="R63" s="155"/>
@@ -12911,8 +12911,8 @@
     </row>
     <row r="64" spans="2:142" ht="15" customHeight="1">
       <c r="B64" s="200"/>
-      <c r="C64" s="191"/>
-      <c r="D64" s="150"/>
+      <c r="C64" s="187"/>
+      <c r="D64" s="152"/>
       <c r="E64" s="154"/>
       <c r="F64" s="142"/>
       <c r="G64" s="144"/>
@@ -12921,9 +12921,9 @@
       <c r="J64" s="144"/>
       <c r="K64" s="144"/>
       <c r="L64" s="146"/>
-      <c r="M64" s="152"/>
+      <c r="M64" s="150"/>
       <c r="N64" s="146"/>
-      <c r="O64" s="152"/>
+      <c r="O64" s="150"/>
       <c r="P64" s="142"/>
       <c r="Q64" s="158"/>
       <c r="R64" s="156"/>
@@ -13053,26 +13053,26 @@
       <c r="EL64" s="96"/>
     </row>
     <row r="65" spans="2:142" ht="9" customHeight="1">
-      <c r="B65" s="199"/>
-      <c r="C65" s="191"/>
-      <c r="D65" s="149"/>
+      <c r="B65" s="201"/>
+      <c r="C65" s="187"/>
+      <c r="D65" s="151"/>
       <c r="E65" s="153" t="s">
         <v>52</v>
       </c>
       <c r="F65" s="141" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G65" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H65" s="143"/>
       <c r="I65" s="143"/>
       <c r="J65" s="143"/>
       <c r="K65" s="143"/>
       <c r="L65" s="145"/>
-      <c r="M65" s="151"/>
+      <c r="M65" s="149"/>
       <c r="N65" s="145"/>
-      <c r="O65" s="151"/>
+      <c r="O65" s="149"/>
       <c r="P65" s="141"/>
       <c r="Q65" s="157"/>
       <c r="R65" s="155"/>
@@ -13203,8 +13203,8 @@
     </row>
     <row r="66" spans="2:142" ht="9" customHeight="1">
       <c r="B66" s="200"/>
-      <c r="C66" s="191"/>
-      <c r="D66" s="150"/>
+      <c r="C66" s="187"/>
+      <c r="D66" s="152"/>
       <c r="E66" s="154"/>
       <c r="F66" s="142"/>
       <c r="G66" s="144"/>
@@ -13213,9 +13213,9 @@
       <c r="J66" s="144"/>
       <c r="K66" s="144"/>
       <c r="L66" s="146"/>
-      <c r="M66" s="152"/>
+      <c r="M66" s="150"/>
       <c r="N66" s="146"/>
-      <c r="O66" s="152"/>
+      <c r="O66" s="150"/>
       <c r="P66" s="142"/>
       <c r="Q66" s="158"/>
       <c r="R66" s="156"/>
@@ -13345,24 +13345,24 @@
       <c r="EL66" s="96"/>
     </row>
     <row r="67" spans="2:142" ht="9" customHeight="1">
-      <c r="B67" s="199"/>
-      <c r="C67" s="191"/>
-      <c r="D67" s="149"/>
+      <c r="B67" s="201"/>
+      <c r="C67" s="187"/>
+      <c r="D67" s="151"/>
       <c r="E67" s="153"/>
       <c r="F67" s="141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G67" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H67" s="143"/>
       <c r="I67" s="143"/>
       <c r="J67" s="143"/>
       <c r="K67" s="143"/>
       <c r="L67" s="145"/>
-      <c r="M67" s="151"/>
+      <c r="M67" s="149"/>
       <c r="N67" s="145"/>
-      <c r="O67" s="151"/>
+      <c r="O67" s="149"/>
       <c r="P67" s="141"/>
       <c r="Q67" s="157"/>
       <c r="R67" s="155"/>
@@ -13493,8 +13493,8 @@
     </row>
     <row r="68" spans="2:142" ht="9" customHeight="1">
       <c r="B68" s="200"/>
-      <c r="C68" s="191"/>
-      <c r="D68" s="150"/>
+      <c r="C68" s="187"/>
+      <c r="D68" s="152"/>
       <c r="E68" s="154"/>
       <c r="F68" s="142"/>
       <c r="G68" s="144"/>
@@ -13503,9 +13503,9 @@
       <c r="J68" s="144"/>
       <c r="K68" s="144"/>
       <c r="L68" s="146"/>
-      <c r="M68" s="152"/>
+      <c r="M68" s="150"/>
       <c r="N68" s="146"/>
-      <c r="O68" s="152"/>
+      <c r="O68" s="150"/>
       <c r="P68" s="142"/>
       <c r="Q68" s="158"/>
       <c r="R68" s="156"/>
@@ -13635,24 +13635,24 @@
       <c r="EL68" s="96"/>
     </row>
     <row r="69" spans="2:142" ht="9" customHeight="1">
-      <c r="B69" s="199"/>
-      <c r="C69" s="191"/>
-      <c r="D69" s="149"/>
+      <c r="B69" s="201"/>
+      <c r="C69" s="187"/>
+      <c r="D69" s="151"/>
       <c r="E69" s="153"/>
       <c r="F69" s="141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G69" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H69" s="143"/>
       <c r="I69" s="143"/>
       <c r="J69" s="143"/>
       <c r="K69" s="143"/>
       <c r="L69" s="145"/>
-      <c r="M69" s="151"/>
+      <c r="M69" s="149"/>
       <c r="N69" s="145"/>
-      <c r="O69" s="151"/>
+      <c r="O69" s="149"/>
       <c r="P69" s="141"/>
       <c r="Q69" s="157"/>
       <c r="R69" s="155"/>
@@ -13783,8 +13783,8 @@
     </row>
     <row r="70" spans="2:142" ht="9" customHeight="1">
       <c r="B70" s="200"/>
-      <c r="C70" s="191"/>
-      <c r="D70" s="150"/>
+      <c r="C70" s="187"/>
+      <c r="D70" s="152"/>
       <c r="E70" s="154"/>
       <c r="F70" s="142"/>
       <c r="G70" s="144"/>
@@ -13793,9 +13793,9 @@
       <c r="J70" s="144"/>
       <c r="K70" s="144"/>
       <c r="L70" s="146"/>
-      <c r="M70" s="152"/>
+      <c r="M70" s="150"/>
       <c r="N70" s="146"/>
-      <c r="O70" s="152"/>
+      <c r="O70" s="150"/>
       <c r="P70" s="142"/>
       <c r="Q70" s="158"/>
       <c r="R70" s="156"/>
@@ -13925,24 +13925,24 @@
       <c r="EL70" s="96"/>
     </row>
     <row r="71" spans="2:142" ht="9" customHeight="1">
-      <c r="B71" s="199"/>
-      <c r="C71" s="191"/>
-      <c r="D71" s="149"/>
+      <c r="B71" s="201"/>
+      <c r="C71" s="187"/>
+      <c r="D71" s="151"/>
       <c r="E71" s="153"/>
       <c r="F71" s="141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G71" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H71" s="143"/>
       <c r="I71" s="143"/>
       <c r="J71" s="143"/>
       <c r="K71" s="159"/>
       <c r="L71" s="145"/>
-      <c r="M71" s="151"/>
+      <c r="M71" s="149"/>
       <c r="N71" s="145"/>
-      <c r="O71" s="151"/>
+      <c r="O71" s="149"/>
       <c r="P71" s="141"/>
       <c r="Q71" s="157"/>
       <c r="R71" s="155"/>
@@ -14073,8 +14073,8 @@
     </row>
     <row r="72" spans="2:142" ht="9" customHeight="1">
       <c r="B72" s="200"/>
-      <c r="C72" s="191"/>
-      <c r="D72" s="150"/>
+      <c r="C72" s="187"/>
+      <c r="D72" s="152"/>
       <c r="E72" s="154"/>
       <c r="F72" s="142"/>
       <c r="G72" s="144"/>
@@ -14083,9 +14083,9 @@
       <c r="J72" s="144"/>
       <c r="K72" s="160"/>
       <c r="L72" s="146"/>
-      <c r="M72" s="152"/>
+      <c r="M72" s="150"/>
       <c r="N72" s="146"/>
-      <c r="O72" s="152"/>
+      <c r="O72" s="150"/>
       <c r="P72" s="142"/>
       <c r="Q72" s="158"/>
       <c r="R72" s="156"/>
@@ -14215,24 +14215,24 @@
       <c r="EL72" s="96"/>
     </row>
     <row r="73" spans="2:142" ht="9" customHeight="1">
-      <c r="B73" s="199"/>
-      <c r="C73" s="191"/>
-      <c r="D73" s="149"/>
+      <c r="B73" s="201"/>
+      <c r="C73" s="187"/>
+      <c r="D73" s="151"/>
       <c r="E73" s="153"/>
       <c r="F73" s="141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G73" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H73" s="143"/>
       <c r="I73" s="143"/>
       <c r="J73" s="143"/>
       <c r="K73" s="159"/>
       <c r="L73" s="145"/>
-      <c r="M73" s="151"/>
+      <c r="M73" s="149"/>
       <c r="N73" s="145"/>
-      <c r="O73" s="151"/>
+      <c r="O73" s="149"/>
       <c r="P73" s="141"/>
       <c r="Q73" s="157"/>
       <c r="R73" s="155"/>
@@ -14363,8 +14363,8 @@
     </row>
     <row r="74" spans="2:142" ht="9" customHeight="1">
       <c r="B74" s="200"/>
-      <c r="C74" s="191"/>
-      <c r="D74" s="150"/>
+      <c r="C74" s="187"/>
+      <c r="D74" s="152"/>
       <c r="E74" s="154"/>
       <c r="F74" s="142"/>
       <c r="G74" s="144"/>
@@ -14373,9 +14373,9 @@
       <c r="J74" s="144"/>
       <c r="K74" s="160"/>
       <c r="L74" s="146"/>
-      <c r="M74" s="152"/>
+      <c r="M74" s="150"/>
       <c r="N74" s="146"/>
-      <c r="O74" s="152"/>
+      <c r="O74" s="150"/>
       <c r="P74" s="142"/>
       <c r="Q74" s="158"/>
       <c r="R74" s="156"/>
@@ -14505,26 +14505,26 @@
       <c r="EL74" s="96"/>
     </row>
     <row r="75" spans="2:142" ht="9" customHeight="1">
-      <c r="B75" s="199"/>
-      <c r="C75" s="191"/>
-      <c r="D75" s="149"/>
+      <c r="B75" s="201"/>
+      <c r="C75" s="187"/>
+      <c r="D75" s="151"/>
       <c r="E75" s="153" t="s">
         <v>82</v>
       </c>
       <c r="F75" s="141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G75" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H75" s="143"/>
       <c r="I75" s="143"/>
       <c r="J75" s="143"/>
       <c r="K75" s="159"/>
       <c r="L75" s="145"/>
-      <c r="M75" s="151"/>
+      <c r="M75" s="149"/>
       <c r="N75" s="145"/>
-      <c r="O75" s="151"/>
+      <c r="O75" s="149"/>
       <c r="P75" s="141"/>
       <c r="Q75" s="157"/>
       <c r="R75" s="155"/>
@@ -14655,8 +14655,8 @@
     </row>
     <row r="76" spans="2:142" ht="9" customHeight="1">
       <c r="B76" s="200"/>
-      <c r="C76" s="191"/>
-      <c r="D76" s="150"/>
+      <c r="C76" s="187"/>
+      <c r="D76" s="152"/>
       <c r="E76" s="154"/>
       <c r="F76" s="142"/>
       <c r="G76" s="144"/>
@@ -14665,9 +14665,9 @@
       <c r="J76" s="144"/>
       <c r="K76" s="160"/>
       <c r="L76" s="146"/>
-      <c r="M76" s="152"/>
+      <c r="M76" s="150"/>
       <c r="N76" s="146"/>
-      <c r="O76" s="152"/>
+      <c r="O76" s="150"/>
       <c r="P76" s="142"/>
       <c r="Q76" s="158"/>
       <c r="R76" s="156"/>
@@ -14797,26 +14797,26 @@
       <c r="EL76" s="96"/>
     </row>
     <row r="77" spans="2:142" ht="9" customHeight="1">
-      <c r="B77" s="199"/>
-      <c r="C77" s="191" t="s">
+      <c r="B77" s="201"/>
+      <c r="C77" s="187" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="151"/>
+      <c r="E77" s="153" t="s">
         <v>116</v>
-      </c>
-      <c r="D77" s="149"/>
-      <c r="E77" s="153" t="s">
-        <v>117</v>
       </c>
       <c r="F77" s="141"/>
       <c r="G77" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H77" s="143"/>
       <c r="I77" s="143"/>
       <c r="J77" s="143"/>
       <c r="K77" s="159"/>
       <c r="L77" s="145"/>
-      <c r="M77" s="151"/>
+      <c r="M77" s="149"/>
       <c r="N77" s="145"/>
-      <c r="O77" s="151"/>
+      <c r="O77" s="149"/>
       <c r="P77" s="141"/>
       <c r="Q77" s="157"/>
       <c r="R77" s="155"/>
@@ -14947,8 +14947,8 @@
     </row>
     <row r="78" spans="2:142" ht="9" customHeight="1">
       <c r="B78" s="200"/>
-      <c r="C78" s="191"/>
-      <c r="D78" s="150"/>
+      <c r="C78" s="187"/>
+      <c r="D78" s="152"/>
       <c r="E78" s="154"/>
       <c r="F78" s="142"/>
       <c r="G78" s="144"/>
@@ -14957,9 +14957,9 @@
       <c r="J78" s="144"/>
       <c r="K78" s="160"/>
       <c r="L78" s="146"/>
-      <c r="M78" s="152"/>
+      <c r="M78" s="150"/>
       <c r="N78" s="146"/>
-      <c r="O78" s="152"/>
+      <c r="O78" s="150"/>
       <c r="P78" s="142"/>
       <c r="Q78" s="158"/>
       <c r="R78" s="156"/>
@@ -15089,24 +15089,24 @@
       <c r="EL78" s="96"/>
     </row>
     <row r="79" spans="2:142" ht="9" customHeight="1">
-      <c r="B79" s="199"/>
-      <c r="C79" s="191"/>
-      <c r="D79" s="149"/>
+      <c r="B79" s="201"/>
+      <c r="C79" s="187"/>
+      <c r="D79" s="151"/>
       <c r="E79" s="153" t="s">
         <v>87</v>
       </c>
       <c r="F79" s="141"/>
       <c r="G79" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H79" s="143"/>
       <c r="I79" s="143"/>
       <c r="J79" s="143"/>
       <c r="K79" s="159"/>
       <c r="L79" s="145"/>
-      <c r="M79" s="151"/>
+      <c r="M79" s="149"/>
       <c r="N79" s="145"/>
-      <c r="O79" s="151"/>
+      <c r="O79" s="149"/>
       <c r="P79" s="141"/>
       <c r="Q79" s="157"/>
       <c r="R79" s="155"/>
@@ -15237,8 +15237,8 @@
     </row>
     <row r="80" spans="2:142" ht="9" customHeight="1">
       <c r="B80" s="200"/>
-      <c r="C80" s="191"/>
-      <c r="D80" s="150"/>
+      <c r="C80" s="187"/>
+      <c r="D80" s="152"/>
       <c r="E80" s="154"/>
       <c r="F80" s="142"/>
       <c r="G80" s="144"/>
@@ -15247,9 +15247,9 @@
       <c r="J80" s="144"/>
       <c r="K80" s="160"/>
       <c r="L80" s="146"/>
-      <c r="M80" s="152"/>
+      <c r="M80" s="150"/>
       <c r="N80" s="146"/>
-      <c r="O80" s="152"/>
+      <c r="O80" s="150"/>
       <c r="P80" s="142"/>
       <c r="Q80" s="158"/>
       <c r="R80" s="156"/>
@@ -15379,13 +15379,13 @@
       <c r="EL80" s="96"/>
     </row>
     <row r="81" spans="2:142" ht="9" customHeight="1">
-      <c r="B81" s="199" t="s">
+      <c r="B81" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="191" t="s">
+      <c r="C81" s="187" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="149"/>
+      <c r="D81" s="151"/>
       <c r="E81" s="153" t="s">
         <v>103</v>
       </c>
@@ -15393,18 +15393,18 @@
         <v>104</v>
       </c>
       <c r="G81" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H81" s="143"/>
       <c r="I81" s="143"/>
       <c r="J81" s="143"/>
       <c r="K81" s="143"/>
       <c r="L81" s="145"/>
-      <c r="M81" s="151"/>
+      <c r="M81" s="149"/>
       <c r="N81" s="145"/>
-      <c r="O81" s="151"/>
+      <c r="O81" s="149"/>
       <c r="P81" s="141" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q81" s="157"/>
       <c r="R81" s="155"/>
@@ -15535,8 +15535,8 @@
     </row>
     <row r="82" spans="2:142" ht="9" customHeight="1">
       <c r="B82" s="200"/>
-      <c r="C82" s="191"/>
-      <c r="D82" s="150"/>
+      <c r="C82" s="187"/>
+      <c r="D82" s="152"/>
       <c r="E82" s="154"/>
       <c r="F82" s="142"/>
       <c r="G82" s="144"/>
@@ -15545,9 +15545,9 @@
       <c r="J82" s="144"/>
       <c r="K82" s="144"/>
       <c r="L82" s="146"/>
-      <c r="M82" s="152"/>
+      <c r="M82" s="150"/>
       <c r="N82" s="146"/>
-      <c r="O82" s="152"/>
+      <c r="O82" s="150"/>
       <c r="P82" s="142"/>
       <c r="Q82" s="158"/>
       <c r="R82" s="156"/>
@@ -15677,28 +15677,28 @@
       <c r="EL82" s="96"/>
     </row>
     <row r="83" spans="2:142" ht="9" customHeight="1">
-      <c r="B83" s="199"/>
-      <c r="C83" s="191" t="s">
+      <c r="B83" s="201"/>
+      <c r="C83" s="187" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="149"/>
+      <c r="D83" s="151"/>
       <c r="E83" s="153" t="s">
         <v>103</v>
       </c>
       <c r="F83" s="141"/>
       <c r="G83" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H83" s="143"/>
       <c r="I83" s="143"/>
       <c r="J83" s="143"/>
       <c r="K83" s="143"/>
       <c r="L83" s="145"/>
-      <c r="M83" s="151"/>
+      <c r="M83" s="149"/>
       <c r="N83" s="145"/>
-      <c r="O83" s="151"/>
+      <c r="O83" s="149"/>
       <c r="P83" s="141" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q83" s="157"/>
       <c r="R83" s="155"/>
@@ -15829,8 +15829,8 @@
     </row>
     <row r="84" spans="2:142" ht="9" customHeight="1">
       <c r="B84" s="200"/>
-      <c r="C84" s="191"/>
-      <c r="D84" s="150"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="152"/>
       <c r="E84" s="154"/>
       <c r="F84" s="142"/>
       <c r="G84" s="144"/>
@@ -15839,9 +15839,9 @@
       <c r="J84" s="144"/>
       <c r="K84" s="144"/>
       <c r="L84" s="146"/>
-      <c r="M84" s="152"/>
+      <c r="M84" s="150"/>
       <c r="N84" s="146"/>
-      <c r="O84" s="152"/>
+      <c r="O84" s="150"/>
       <c r="P84" s="142"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="156"/>
@@ -15971,28 +15971,28 @@
       <c r="EL84" s="96"/>
     </row>
     <row r="85" spans="2:142" ht="9" customHeight="1">
-      <c r="B85" s="199"/>
-      <c r="C85" s="191" t="s">
+      <c r="B85" s="201"/>
+      <c r="C85" s="187" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="149"/>
+      <c r="D85" s="151"/>
       <c r="E85" s="153" t="s">
         <v>102</v>
       </c>
       <c r="F85" s="141"/>
       <c r="G85" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H85" s="143"/>
       <c r="I85" s="143"/>
       <c r="J85" s="143"/>
       <c r="K85" s="143"/>
       <c r="L85" s="145"/>
-      <c r="M85" s="151"/>
+      <c r="M85" s="149"/>
       <c r="N85" s="145"/>
-      <c r="O85" s="151"/>
+      <c r="O85" s="149"/>
       <c r="P85" s="141" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q85" s="157"/>
       <c r="R85" s="155"/>
@@ -16123,8 +16123,8 @@
     </row>
     <row r="86" spans="2:142" ht="9" customHeight="1">
       <c r="B86" s="200"/>
-      <c r="C86" s="191"/>
-      <c r="D86" s="150"/>
+      <c r="C86" s="187"/>
+      <c r="D86" s="152"/>
       <c r="E86" s="154"/>
       <c r="F86" s="142"/>
       <c r="G86" s="144"/>
@@ -16133,9 +16133,9 @@
       <c r="J86" s="144"/>
       <c r="K86" s="144"/>
       <c r="L86" s="146"/>
-      <c r="M86" s="152"/>
+      <c r="M86" s="150"/>
       <c r="N86" s="146"/>
-      <c r="O86" s="152"/>
+      <c r="O86" s="150"/>
       <c r="P86" s="142"/>
       <c r="Q86" s="158"/>
       <c r="R86" s="156"/>
@@ -16265,28 +16265,28 @@
       <c r="EL86" s="96"/>
     </row>
     <row r="87" spans="2:142" ht="9" customHeight="1">
-      <c r="B87" s="199"/>
-      <c r="C87" s="191" t="s">
+      <c r="B87" s="201"/>
+      <c r="C87" s="187" t="s">
         <v>92</v>
       </c>
-      <c r="D87" s="149"/>
+      <c r="D87" s="151"/>
       <c r="E87" s="153" t="s">
         <v>100</v>
       </c>
       <c r="F87" s="141"/>
       <c r="G87" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H87" s="143"/>
       <c r="I87" s="143"/>
       <c r="J87" s="143"/>
       <c r="K87" s="143"/>
       <c r="L87" s="145"/>
-      <c r="M87" s="151"/>
+      <c r="M87" s="149"/>
       <c r="N87" s="145"/>
-      <c r="O87" s="151"/>
+      <c r="O87" s="149"/>
       <c r="P87" s="141" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q87" s="157"/>
       <c r="R87" s="155"/>
@@ -16417,8 +16417,8 @@
     </row>
     <row r="88" spans="2:142" ht="9" customHeight="1">
       <c r="B88" s="200"/>
-      <c r="C88" s="191"/>
-      <c r="D88" s="150"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="152"/>
       <c r="E88" s="154"/>
       <c r="F88" s="142"/>
       <c r="G88" s="144"/>
@@ -16427,9 +16427,9 @@
       <c r="J88" s="144"/>
       <c r="K88" s="144"/>
       <c r="L88" s="146"/>
-      <c r="M88" s="152"/>
+      <c r="M88" s="150"/>
       <c r="N88" s="146"/>
-      <c r="O88" s="152"/>
+      <c r="O88" s="150"/>
       <c r="P88" s="142"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="156"/>
@@ -16559,28 +16559,28 @@
       <c r="EL88" s="96"/>
     </row>
     <row r="89" spans="2:142" ht="9" customHeight="1">
-      <c r="B89" s="199"/>
-      <c r="C89" s="191" t="s">
+      <c r="B89" s="201"/>
+      <c r="C89" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="D89" s="149"/>
+      <c r="D89" s="151"/>
       <c r="E89" s="153" t="s">
         <v>101</v>
       </c>
       <c r="F89" s="141"/>
       <c r="G89" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H89" s="143"/>
       <c r="I89" s="143"/>
       <c r="J89" s="143"/>
       <c r="K89" s="143"/>
       <c r="L89" s="145"/>
-      <c r="M89" s="151"/>
+      <c r="M89" s="149"/>
       <c r="N89" s="145"/>
-      <c r="O89" s="151"/>
+      <c r="O89" s="149"/>
       <c r="P89" s="141" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q89" s="157"/>
       <c r="R89" s="155"/>
@@ -16711,8 +16711,8 @@
     </row>
     <row r="90" spans="2:142" ht="9" customHeight="1">
       <c r="B90" s="200"/>
-      <c r="C90" s="191"/>
-      <c r="D90" s="150"/>
+      <c r="C90" s="187"/>
+      <c r="D90" s="152"/>
       <c r="E90" s="154"/>
       <c r="F90" s="142"/>
       <c r="G90" s="144"/>
@@ -16721,9 +16721,9 @@
       <c r="J90" s="144"/>
       <c r="K90" s="144"/>
       <c r="L90" s="146"/>
-      <c r="M90" s="152"/>
+      <c r="M90" s="150"/>
       <c r="N90" s="146"/>
-      <c r="O90" s="152"/>
+      <c r="O90" s="150"/>
       <c r="P90" s="142"/>
       <c r="Q90" s="158"/>
       <c r="R90" s="156"/>
@@ -16853,28 +16853,28 @@
       <c r="EL90" s="96"/>
     </row>
     <row r="91" spans="2:142" ht="9" customHeight="1">
-      <c r="B91" s="199"/>
-      <c r="C91" s="191" t="s">
+      <c r="B91" s="201"/>
+      <c r="C91" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="D91" s="149"/>
+      <c r="D91" s="151"/>
       <c r="E91" s="153" t="s">
         <v>99</v>
       </c>
       <c r="F91" s="141"/>
       <c r="G91" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H91" s="143"/>
       <c r="I91" s="143"/>
       <c r="J91" s="143"/>
       <c r="K91" s="143"/>
       <c r="L91" s="145"/>
-      <c r="M91" s="151"/>
+      <c r="M91" s="149"/>
       <c r="N91" s="145"/>
-      <c r="O91" s="151"/>
+      <c r="O91" s="149"/>
       <c r="P91" s="141" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q91" s="157"/>
       <c r="R91" s="155"/>
@@ -17005,8 +17005,8 @@
     </row>
     <row r="92" spans="2:142" ht="9" customHeight="1">
       <c r="B92" s="200"/>
-      <c r="C92" s="191"/>
-      <c r="D92" s="150"/>
+      <c r="C92" s="187"/>
+      <c r="D92" s="152"/>
       <c r="E92" s="154"/>
       <c r="F92" s="142"/>
       <c r="G92" s="144"/>
@@ -17015,9 +17015,9 @@
       <c r="J92" s="144"/>
       <c r="K92" s="144"/>
       <c r="L92" s="146"/>
-      <c r="M92" s="152"/>
+      <c r="M92" s="150"/>
       <c r="N92" s="146"/>
-      <c r="O92" s="152"/>
+      <c r="O92" s="150"/>
       <c r="P92" s="142"/>
       <c r="Q92" s="158"/>
       <c r="R92" s="156"/>
@@ -17147,17 +17147,17 @@
       <c r="EL92" s="96"/>
     </row>
     <row r="93" spans="2:142" ht="9" customHeight="1">
-      <c r="B93" s="199"/>
-      <c r="C93" s="191" t="s">
+      <c r="B93" s="201"/>
+      <c r="C93" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="D93" s="149"/>
+      <c r="D93" s="151"/>
       <c r="E93" s="153" t="s">
         <v>97</v>
       </c>
       <c r="F93" s="141"/>
       <c r="G93" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H93" s="143"/>
       <c r="I93" s="143"/>
@@ -17168,7 +17168,7 @@
       <c r="N93" s="143"/>
       <c r="O93" s="143"/>
       <c r="P93" s="141" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q93" s="157"/>
       <c r="R93" s="155"/>
@@ -17299,8 +17299,8 @@
     </row>
     <row r="94" spans="2:142" ht="9" customHeight="1">
       <c r="B94" s="200"/>
-      <c r="C94" s="191"/>
-      <c r="D94" s="150"/>
+      <c r="C94" s="187"/>
+      <c r="D94" s="152"/>
       <c r="E94" s="154"/>
       <c r="F94" s="142"/>
       <c r="G94" s="144"/>
@@ -17441,28 +17441,28 @@
       <c r="EL94" s="96"/>
     </row>
     <row r="95" spans="2:142" ht="9" customHeight="1">
-      <c r="B95" s="199"/>
-      <c r="C95" s="191" t="s">
+      <c r="B95" s="201"/>
+      <c r="C95" s="187" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="149"/>
+      <c r="D95" s="151"/>
       <c r="E95" s="153" t="s">
         <v>98</v>
       </c>
       <c r="F95" s="141"/>
       <c r="G95" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H95" s="143"/>
       <c r="I95" s="143"/>
       <c r="J95" s="143"/>
       <c r="K95" s="143"/>
       <c r="L95" s="145"/>
-      <c r="M95" s="151"/>
+      <c r="M95" s="149"/>
       <c r="N95" s="145"/>
-      <c r="O95" s="151"/>
+      <c r="O95" s="149"/>
       <c r="P95" s="141" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q95" s="157"/>
       <c r="R95" s="155"/>
@@ -17593,8 +17593,8 @@
     </row>
     <row r="96" spans="2:142" ht="9" customHeight="1">
       <c r="B96" s="200"/>
-      <c r="C96" s="191"/>
-      <c r="D96" s="150"/>
+      <c r="C96" s="187"/>
+      <c r="D96" s="152"/>
       <c r="E96" s="154"/>
       <c r="F96" s="142"/>
       <c r="G96" s="144"/>
@@ -17603,9 +17603,9 @@
       <c r="J96" s="144"/>
       <c r="K96" s="144"/>
       <c r="L96" s="146"/>
-      <c r="M96" s="152"/>
+      <c r="M96" s="150"/>
       <c r="N96" s="146"/>
-      <c r="O96" s="152"/>
+      <c r="O96" s="150"/>
       <c r="P96" s="142"/>
       <c r="Q96" s="158"/>
       <c r="R96" s="156"/>
@@ -17735,9 +17735,9 @@
       <c r="EL96" s="96"/>
     </row>
     <row r="97" spans="2:142" ht="9" customHeight="1">
-      <c r="B97" s="199"/>
-      <c r="C97" s="191"/>
-      <c r="D97" s="149"/>
+      <c r="B97" s="201"/>
+      <c r="C97" s="187"/>
+      <c r="D97" s="151"/>
       <c r="E97" s="153"/>
       <c r="F97" s="141"/>
       <c r="G97" s="143"/>
@@ -17746,9 +17746,9 @@
       <c r="J97" s="159"/>
       <c r="K97" s="159"/>
       <c r="L97" s="145"/>
-      <c r="M97" s="151"/>
+      <c r="M97" s="149"/>
       <c r="N97" s="145"/>
-      <c r="O97" s="151"/>
+      <c r="O97" s="149"/>
       <c r="P97" s="141"/>
       <c r="Q97" s="157"/>
       <c r="R97" s="155"/>
@@ -17879,8 +17879,8 @@
     </row>
     <row r="98" spans="2:142" ht="9" customHeight="1">
       <c r="B98" s="200"/>
-      <c r="C98" s="191"/>
-      <c r="D98" s="150"/>
+      <c r="C98" s="187"/>
+      <c r="D98" s="152"/>
       <c r="E98" s="154"/>
       <c r="F98" s="142"/>
       <c r="G98" s="144"/>
@@ -17889,9 +17889,9 @@
       <c r="J98" s="160"/>
       <c r="K98" s="160"/>
       <c r="L98" s="146"/>
-      <c r="M98" s="152"/>
+      <c r="M98" s="150"/>
       <c r="N98" s="146"/>
-      <c r="O98" s="152"/>
+      <c r="O98" s="150"/>
       <c r="P98" s="142"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="156"/>
@@ -18021,9 +18021,9 @@
       <c r="EL98" s="96"/>
     </row>
     <row r="99" spans="2:142" ht="9" customHeight="1">
-      <c r="B99" s="199"/>
-      <c r="C99" s="191"/>
-      <c r="D99" s="149"/>
+      <c r="B99" s="201"/>
+      <c r="C99" s="187"/>
+      <c r="D99" s="151"/>
       <c r="E99" s="153"/>
       <c r="F99" s="141"/>
       <c r="G99" s="143"/>
@@ -18032,9 +18032,9 @@
       <c r="J99" s="159"/>
       <c r="K99" s="159"/>
       <c r="L99" s="145"/>
-      <c r="M99" s="151"/>
+      <c r="M99" s="149"/>
       <c r="N99" s="145"/>
-      <c r="O99" s="151"/>
+      <c r="O99" s="149"/>
       <c r="P99" s="141"/>
       <c r="Q99" s="157"/>
       <c r="R99" s="155"/>
@@ -18165,8 +18165,8 @@
     </row>
     <row r="100" spans="2:142" ht="9" customHeight="1">
       <c r="B100" s="200"/>
-      <c r="C100" s="191"/>
-      <c r="D100" s="150"/>
+      <c r="C100" s="187"/>
+      <c r="D100" s="152"/>
       <c r="E100" s="154"/>
       <c r="F100" s="142"/>
       <c r="G100" s="144"/>
@@ -18175,9 +18175,9 @@
       <c r="J100" s="160"/>
       <c r="K100" s="160"/>
       <c r="L100" s="146"/>
-      <c r="M100" s="152"/>
+      <c r="M100" s="150"/>
       <c r="N100" s="146"/>
-      <c r="O100" s="152"/>
+      <c r="O100" s="150"/>
       <c r="P100" s="142"/>
       <c r="Q100" s="158"/>
       <c r="R100" s="156"/>
@@ -18307,9 +18307,9 @@
       <c r="EL100" s="96"/>
     </row>
     <row r="101" spans="2:142" ht="9" customHeight="1">
-      <c r="B101" s="199"/>
-      <c r="C101" s="191"/>
-      <c r="D101" s="149"/>
+      <c r="B101" s="201"/>
+      <c r="C101" s="187"/>
+      <c r="D101" s="151"/>
       <c r="E101" s="153"/>
       <c r="F101" s="141"/>
       <c r="G101" s="143"/>
@@ -18318,9 +18318,9 @@
       <c r="J101" s="159"/>
       <c r="K101" s="159"/>
       <c r="L101" s="145"/>
-      <c r="M101" s="151"/>
+      <c r="M101" s="149"/>
       <c r="N101" s="145"/>
-      <c r="O101" s="151"/>
+      <c r="O101" s="149"/>
       <c r="P101" s="141"/>
       <c r="Q101" s="157"/>
       <c r="R101" s="155"/>
@@ -18451,8 +18451,8 @@
     </row>
     <row r="102" spans="2:142" ht="9" customHeight="1">
       <c r="B102" s="200"/>
-      <c r="C102" s="191"/>
-      <c r="D102" s="150"/>
+      <c r="C102" s="187"/>
+      <c r="D102" s="152"/>
       <c r="E102" s="154"/>
       <c r="F102" s="142"/>
       <c r="G102" s="144"/>
@@ -18461,9 +18461,9 @@
       <c r="J102" s="160"/>
       <c r="K102" s="160"/>
       <c r="L102" s="146"/>
-      <c r="M102" s="152"/>
+      <c r="M102" s="150"/>
       <c r="N102" s="146"/>
-      <c r="O102" s="152"/>
+      <c r="O102" s="150"/>
       <c r="P102" s="142"/>
       <c r="Q102" s="158"/>
       <c r="R102" s="156"/>
@@ -18593,9 +18593,9 @@
       <c r="EL102" s="96"/>
     </row>
     <row r="103" spans="2:142" ht="9" customHeight="1">
-      <c r="B103" s="199"/>
-      <c r="C103" s="191"/>
-      <c r="D103" s="149"/>
+      <c r="B103" s="201"/>
+      <c r="C103" s="187"/>
+      <c r="D103" s="151"/>
       <c r="E103" s="153"/>
       <c r="F103" s="141"/>
       <c r="G103" s="143"/>
@@ -18604,9 +18604,9 @@
       <c r="J103" s="159"/>
       <c r="K103" s="159"/>
       <c r="L103" s="145"/>
-      <c r="M103" s="151"/>
+      <c r="M103" s="149"/>
       <c r="N103" s="145"/>
-      <c r="O103" s="151"/>
+      <c r="O103" s="149"/>
       <c r="P103" s="141"/>
       <c r="Q103" s="157"/>
       <c r="R103" s="155"/>
@@ -18737,8 +18737,8 @@
     </row>
     <row r="104" spans="2:142" ht="9" customHeight="1">
       <c r="B104" s="200"/>
-      <c r="C104" s="191"/>
-      <c r="D104" s="150"/>
+      <c r="C104" s="187"/>
+      <c r="D104" s="152"/>
       <c r="E104" s="154"/>
       <c r="F104" s="142"/>
       <c r="G104" s="144"/>
@@ -18747,9 +18747,9 @@
       <c r="J104" s="160"/>
       <c r="K104" s="160"/>
       <c r="L104" s="146"/>
-      <c r="M104" s="152"/>
+      <c r="M104" s="150"/>
       <c r="N104" s="146"/>
-      <c r="O104" s="152"/>
+      <c r="O104" s="150"/>
       <c r="P104" s="142"/>
       <c r="Q104" s="158"/>
       <c r="R104" s="156"/>
@@ -18879,9 +18879,9 @@
       <c r="EL104" s="96"/>
     </row>
     <row r="105" spans="2:142" ht="9" customHeight="1">
-      <c r="B105" s="199"/>
-      <c r="C105" s="191"/>
-      <c r="D105" s="149"/>
+      <c r="B105" s="201"/>
+      <c r="C105" s="187"/>
+      <c r="D105" s="151"/>
       <c r="E105" s="153"/>
       <c r="F105" s="141"/>
       <c r="G105" s="143"/>
@@ -18890,9 +18890,9 @@
       <c r="J105" s="159"/>
       <c r="K105" s="159"/>
       <c r="L105" s="145"/>
-      <c r="M105" s="151"/>
+      <c r="M105" s="149"/>
       <c r="N105" s="145"/>
-      <c r="O105" s="151"/>
+      <c r="O105" s="149"/>
       <c r="P105" s="141"/>
       <c r="Q105" s="157"/>
       <c r="R105" s="155"/>
@@ -19023,8 +19023,8 @@
     </row>
     <row r="106" spans="2:142" ht="9" customHeight="1">
       <c r="B106" s="200"/>
-      <c r="C106" s="191"/>
-      <c r="D106" s="150"/>
+      <c r="C106" s="187"/>
+      <c r="D106" s="152"/>
       <c r="E106" s="154"/>
       <c r="F106" s="142"/>
       <c r="G106" s="144"/>
@@ -19033,9 +19033,9 @@
       <c r="J106" s="160"/>
       <c r="K106" s="160"/>
       <c r="L106" s="146"/>
-      <c r="M106" s="152"/>
+      <c r="M106" s="150"/>
       <c r="N106" s="146"/>
-      <c r="O106" s="152"/>
+      <c r="O106" s="150"/>
       <c r="P106" s="142"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="156"/>
@@ -19165,9 +19165,9 @@
       <c r="EL106" s="96"/>
     </row>
     <row r="107" spans="2:142" ht="9" customHeight="1">
-      <c r="B107" s="199"/>
-      <c r="C107" s="191"/>
-      <c r="D107" s="149"/>
+      <c r="B107" s="201"/>
+      <c r="C107" s="187"/>
+      <c r="D107" s="151"/>
       <c r="E107" s="153"/>
       <c r="F107" s="141"/>
       <c r="G107" s="143"/>
@@ -19176,9 +19176,9 @@
       <c r="J107" s="159"/>
       <c r="K107" s="159"/>
       <c r="L107" s="145"/>
-      <c r="M107" s="151"/>
+      <c r="M107" s="149"/>
       <c r="N107" s="145"/>
-      <c r="O107" s="151"/>
+      <c r="O107" s="149"/>
       <c r="P107" s="141"/>
       <c r="Q107" s="157"/>
       <c r="R107" s="155"/>
@@ -19309,8 +19309,8 @@
     </row>
     <row r="108" spans="2:142" ht="9" customHeight="1">
       <c r="B108" s="200"/>
-      <c r="C108" s="191"/>
-      <c r="D108" s="150"/>
+      <c r="C108" s="187"/>
+      <c r="D108" s="152"/>
       <c r="E108" s="154"/>
       <c r="F108" s="142"/>
       <c r="G108" s="144"/>
@@ -19319,9 +19319,9 @@
       <c r="J108" s="160"/>
       <c r="K108" s="160"/>
       <c r="L108" s="146"/>
-      <c r="M108" s="152"/>
+      <c r="M108" s="150"/>
       <c r="N108" s="146"/>
-      <c r="O108" s="152"/>
+      <c r="O108" s="150"/>
       <c r="P108" s="142"/>
       <c r="Q108" s="158"/>
       <c r="R108" s="156"/>
@@ -19451,9 +19451,9 @@
       <c r="EL108" s="96"/>
     </row>
     <row r="109" spans="2:142" ht="9" customHeight="1">
-      <c r="B109" s="199"/>
-      <c r="C109" s="191"/>
-      <c r="D109" s="149"/>
+      <c r="B109" s="201"/>
+      <c r="C109" s="187"/>
+      <c r="D109" s="151"/>
       <c r="E109" s="153"/>
       <c r="F109" s="141"/>
       <c r="G109" s="143"/>
@@ -19462,9 +19462,9 @@
       <c r="J109" s="159"/>
       <c r="K109" s="159"/>
       <c r="L109" s="145"/>
-      <c r="M109" s="151"/>
+      <c r="M109" s="149"/>
       <c r="N109" s="145"/>
-      <c r="O109" s="151"/>
+      <c r="O109" s="149"/>
       <c r="P109" s="141"/>
       <c r="Q109" s="157"/>
       <c r="R109" s="155"/>
@@ -19595,8 +19595,8 @@
     </row>
     <row r="110" spans="2:142" ht="9" customHeight="1">
       <c r="B110" s="200"/>
-      <c r="C110" s="191"/>
-      <c r="D110" s="150"/>
+      <c r="C110" s="187"/>
+      <c r="D110" s="152"/>
       <c r="E110" s="154"/>
       <c r="F110" s="142"/>
       <c r="G110" s="144"/>
@@ -19605,9 +19605,9 @@
       <c r="J110" s="160"/>
       <c r="K110" s="160"/>
       <c r="L110" s="146"/>
-      <c r="M110" s="152"/>
+      <c r="M110" s="150"/>
       <c r="N110" s="146"/>
-      <c r="O110" s="152"/>
+      <c r="O110" s="150"/>
       <c r="P110" s="142"/>
       <c r="Q110" s="158"/>
       <c r="R110" s="156"/>
@@ -19753,6 +19753,7 @@
     <mergeCell ref="C101:C102"/>
     <mergeCell ref="E101:E102"/>
     <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="E103:E104"/>
@@ -19765,6 +19766,9 @@
     <mergeCell ref="D109:D110"/>
     <mergeCell ref="D107:D108"/>
     <mergeCell ref="E107:E108"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="E91:E92"/>
@@ -19789,8 +19793,6 @@
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
     <mergeCell ref="N85:N86"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
@@ -19836,6 +19838,7 @@
     <mergeCell ref="J69:J70"/>
     <mergeCell ref="K69:K70"/>
     <mergeCell ref="L69:L70"/>
+    <mergeCell ref="N79:N80"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="B59:B60"/>
@@ -19894,6 +19897,7 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="Q79:Q80"/>
     <mergeCell ref="R79:R80"/>
     <mergeCell ref="Q27:Q28"/>
@@ -19975,7 +19979,6 @@
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
     <mergeCell ref="I95:I96"/>
     <mergeCell ref="J95:J96"/>
     <mergeCell ref="K95:K96"/>
@@ -19990,8 +19993,17 @@
     <mergeCell ref="G71:G72"/>
     <mergeCell ref="H71:H72"/>
     <mergeCell ref="K93:K94"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="F43:F44"/>
@@ -19999,8 +20011,12 @@
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="E43:E44"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
     <mergeCell ref="N49:N50"/>
     <mergeCell ref="O31:O32"/>
     <mergeCell ref="G21:G22"/>
@@ -20021,11 +20037,7 @@
     <mergeCell ref="N25:N26"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="J71:J72"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="N35:N36"/>
     <mergeCell ref="M37:M38"/>
@@ -20034,10 +20046,10 @@
     <mergeCell ref="L39:L40"/>
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="N31:N32"/>
     <mergeCell ref="L83:L84"/>
     <mergeCell ref="M79:M80"/>
@@ -20061,8 +20073,6 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="D43:D44"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E11:E12"/>
@@ -20071,6 +20081,13 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P61:P62"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F9:F10"/>
@@ -20081,33 +20098,14 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="O35:O36"/>
@@ -20117,9 +20115,6 @@
     <mergeCell ref="P35:P36"/>
     <mergeCell ref="Q47:Q48"/>
     <mergeCell ref="R47:R48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="O37:O38"/>
@@ -20130,6 +20125,9 @@
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="R13:R14"/>
     <mergeCell ref="Q9:R10"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="P47:P48"/>
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="N17:N18"/>
@@ -20152,6 +20150,13 @@
     <mergeCell ref="O23:O24"/>
     <mergeCell ref="Q23:Q24"/>
     <mergeCell ref="R23:R24"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
     <mergeCell ref="Q31:Q32"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="J21:J22"/>
@@ -20165,13 +20170,12 @@
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="P29:P30"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="L63:L64"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="L33:L34"/>
@@ -20183,23 +20187,14 @@
     <mergeCell ref="O53:O54"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="O39:O40"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="H29:H30"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="D89:D90"/>
@@ -20218,6 +20213,12 @@
     <mergeCell ref="Q77:Q78"/>
     <mergeCell ref="O69:O70"/>
     <mergeCell ref="P73:P74"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
     <mergeCell ref="M63:M64"/>
     <mergeCell ref="Q37:Q38"/>
     <mergeCell ref="R37:R38"/>
@@ -20232,12 +20233,16 @@
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="EL8:EL10"/>
@@ -20253,19 +20258,9 @@
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="R11:R12"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="N13:N14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="N19:N20"/>
@@ -20276,8 +20271,10 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="K17:K18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="G77:G78"/>
     <mergeCell ref="H77:H78"/>
@@ -20298,7 +20295,10 @@
     <mergeCell ref="N77:N78"/>
     <mergeCell ref="O77:O78"/>
     <mergeCell ref="P69:P70"/>
-    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
     <mergeCell ref="E79:E80"/>
     <mergeCell ref="P85:P86"/>
     <mergeCell ref="F81:F82"/>
@@ -20322,6 +20322,7 @@
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="M93:M94"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="E95:E96"/>
     <mergeCell ref="D93:D94"/>
     <mergeCell ref="J91:J92"/>
@@ -20343,10 +20344,24 @@
     <mergeCell ref="H91:H92"/>
     <mergeCell ref="I91:I92"/>
     <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F85:F86"/>
     <mergeCell ref="K89:K90"/>
     <mergeCell ref="M95:M96"/>
     <mergeCell ref="N95:N96"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="O87:O88"/>
     <mergeCell ref="Q97:Q98"/>
     <mergeCell ref="R97:R98"/>
     <mergeCell ref="N93:N94"/>
@@ -20356,17 +20371,6 @@
     <mergeCell ref="L89:L90"/>
     <mergeCell ref="Q95:Q96"/>
     <mergeCell ref="R95:R96"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="O85:O86"/>
-    <mergeCell ref="Q85:Q86"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="D101:D102"/>
     <mergeCell ref="J101:J102"/>
     <mergeCell ref="K101:K102"/>
     <mergeCell ref="L101:L102"/>
@@ -20388,8 +20392,9 @@
     <mergeCell ref="M99:M100"/>
     <mergeCell ref="N99:N100"/>
     <mergeCell ref="O99:O100"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="G105:G106"/>
     <mergeCell ref="H105:H106"/>
     <mergeCell ref="I105:I106"/>
@@ -20399,7 +20404,6 @@
     <mergeCell ref="M105:M106"/>
     <mergeCell ref="I103:I104"/>
     <mergeCell ref="J103:J104"/>
-    <mergeCell ref="E105:E106"/>
     <mergeCell ref="F103:F104"/>
     <mergeCell ref="F105:F106"/>
     <mergeCell ref="K109:K110"/>
@@ -20424,10 +20428,6 @@
     <mergeCell ref="G103:G104"/>
     <mergeCell ref="H103:H104"/>
     <mergeCell ref="Q105:Q106"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="P105:P106"/>
-    <mergeCell ref="P107:P108"/>
-    <mergeCell ref="P109:P110"/>
     <mergeCell ref="L107:L108"/>
     <mergeCell ref="M107:M108"/>
     <mergeCell ref="N107:N108"/>
@@ -20437,28 +20437,30 @@
     <mergeCell ref="O109:O110"/>
     <mergeCell ref="Q109:Q110"/>
     <mergeCell ref="R109:R110"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
     <mergeCell ref="N43:N44"/>
     <mergeCell ref="O43:O44"/>
     <mergeCell ref="R41:R42"/>
     <mergeCell ref="Q43:Q44"/>
     <mergeCell ref="R43:R44"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="P105:P106"/>
+    <mergeCell ref="P107:P108"/>
+    <mergeCell ref="P109:P110"/>
+    <mergeCell ref="O105:O106"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="Q59:Q60"/>
     <mergeCell ref="Q45:Q46"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="F107:F108"/>
@@ -20481,6 +20483,8 @@
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="L45:L46"/>
     <mergeCell ref="M45:M46"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
     <mergeCell ref="G109:G110"/>
     <mergeCell ref="H109:H110"/>
     <mergeCell ref="I109:I110"/>
@@ -20493,18 +20497,18 @@
     <mergeCell ref="H107:H108"/>
     <mergeCell ref="I107:I108"/>
     <mergeCell ref="J107:J108"/>
-    <mergeCell ref="O105:O106"/>
     <mergeCell ref="K107:K108"/>
     <mergeCell ref="K97:K98"/>
     <mergeCell ref="L97:L98"/>
-    <mergeCell ref="M97:M98"/>
-    <mergeCell ref="N97:N98"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="O95:O96"/>
     <mergeCell ref="I81:I82"/>
     <mergeCell ref="J81:J82"/>
     <mergeCell ref="K81:K82"/>
     <mergeCell ref="L81:L82"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
     <mergeCell ref="M101:M102"/>
     <mergeCell ref="N101:N102"/>
     <mergeCell ref="O101:O102"/>
@@ -20514,24 +20518,9 @@
     <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
     <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E49:E50"/>
     <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F49:F50"/>
     <mergeCell ref="F51:F52"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="R87:R88"/>
-    <mergeCell ref="P75:P76"/>
     <mergeCell ref="G73:G74"/>
     <mergeCell ref="H73:H74"/>
     <mergeCell ref="I73:I74"/>
@@ -20543,6 +20532,19 @@
     <mergeCell ref="J85:J86"/>
     <mergeCell ref="K85:K86"/>
     <mergeCell ref="O83:O84"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
     <mergeCell ref="Q83:Q84"/>
     <mergeCell ref="R83:R84"/>
     <mergeCell ref="N83:N84"/>
@@ -20553,15 +20555,6 @@
     <mergeCell ref="O81:O82"/>
     <mergeCell ref="Q81:Q82"/>
     <mergeCell ref="R81:R82"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="O87:O88"/>
     <mergeCell ref="R59:R60"/>
     <mergeCell ref="M57:M58"/>
     <mergeCell ref="J59:J60"/>
@@ -20578,6 +20571,8 @@
     <mergeCell ref="N61:N62"/>
     <mergeCell ref="R61:R62"/>
     <mergeCell ref="F61:F62"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="Q61:Q62"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="I53:I54"/>
     <mergeCell ref="J53:J54"/>
@@ -20621,6 +20616,11 @@
     <mergeCell ref="P31:P32"/>
     <mergeCell ref="P41:P42"/>
     <mergeCell ref="O49:O50"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="S8:EK8">
